--- a/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
@@ -1152,10 +1152,18 @@
       <c r="H19" t="n">
         <v>6.398554222101945</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.2546123250592053</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1558172261155497</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.102224014310297</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.056278732576485</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>9.416084923091057</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.03998220957160841</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2646407987648076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1723740260921927</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.537203454282187</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.986439423091731</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.1582067356211394</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3588061327005375</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.03761786831868028</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.061438656335365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
@@ -552,19 +552,19 @@
         <v>0.1452054794520548</v>
       </c>
       <c r="D3" t="n">
-        <v>116003.7549192877</v>
+        <v>115955.2255462724</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01454358818087863</v>
+        <v>-0.01670229194722833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1795309459867699</v>
+        <v>0.1881691251702542</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.8372872392789662</v>
+        <v>-1.198330183539438</v>
       </c>
       <c r="H3" t="n">
-        <v>8.914017448223648</v>
+        <v>12.13031415497148</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,19 +586,19 @@
         <v>0.2410958904109589</v>
       </c>
       <c r="D4" t="n">
-        <v>116765.6972756993</v>
+        <v>116678.6140084049</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02149995942687654</v>
+        <v>-0.02515636061401031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2119985510193876</v>
+        <v>0.2274818802112115</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.002391899878438</v>
+        <v>-1.498601766421102</v>
       </c>
       <c r="H4" t="n">
-        <v>8.64336341702778</v>
+        <v>13.05208136015519</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3178082191780822</v>
       </c>
       <c r="D5" t="n">
-        <v>117531.0910035492</v>
+        <v>117478.7415924875</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02404473988171789</v>
+        <v>-0.02689556455888626</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2163150202739506</v>
+        <v>0.2295997912101166</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4468627169522811</v>
+        <v>-0.8488861550963592</v>
       </c>
       <c r="H5" t="n">
-        <v>5.777516364197138</v>
+        <v>8.5138113623125</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8164383561643835</v>
       </c>
       <c r="D8" t="n">
-        <v>119727.1661696416</v>
+        <v>119719.4197123511</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05032106257313811</v>
+        <v>-0.05074716512198433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2220424365394573</v>
+        <v>0.2240109318190357</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8768974527110363</v>
+        <v>-0.9338520001640457</v>
       </c>
       <c r="H8" t="n">
-        <v>6.33001993781772</v>
+        <v>6.743017105960065</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8931506849315068</v>
       </c>
       <c r="D9" t="n">
-        <v>121299.5046539874</v>
+        <v>121303.5659644731</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08357710464688604</v>
+        <v>-0.08198894648673169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3754694527385088</v>
+        <v>0.3624737229804428</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.242271347670045</v>
+        <v>-1.997861032331176</v>
       </c>
       <c r="H9" t="n">
-        <v>15.05779492504175</v>
+        <v>12.63015744621798</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.142465753424658</v>
       </c>
       <c r="D10" t="n">
-        <v>122773.8930471625</v>
+        <v>122768.96845271</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1163570401526564</v>
+        <v>-0.1179712470468311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4367598314737958</v>
+        <v>0.4482425263296893</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.790212645536092</v>
+        <v>-1.924195159957787</v>
       </c>
       <c r="H10" t="n">
-        <v>8.590238309634053</v>
+        <v>9.697580848004085</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.389041095890411</v>
       </c>
       <c r="D11" t="n">
-        <v>128501.0750238103</v>
+        <v>124776.9884208325</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09317945534888716</v>
+        <v>-0.1959728421668885</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4236392024361014</v>
+        <v>0.7865192950407556</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.737624169185681</v>
+        <v>-2.597082958437904</v>
       </c>
       <c r="H11" t="n">
-        <v>7.514123661307998</v>
+        <v>12.55898539888622</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D12" t="n">
-        <v>115258.0962502794</v>
+        <v>115305.8864000354</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0067240720771563</v>
+        <v>-0.002104883204642449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1616340423040999</v>
+        <v>0.1325200838312176</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.717158574101886</v>
+        <v>-0.654349094243695</v>
       </c>
       <c r="H12" t="n">
-        <v>30.82067456747549</v>
+        <v>6.020192798401761</v>
       </c>
       <c r="I12" t="n">
         <v>0.2352163391383021</v>
@@ -936,19 +936,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D14" t="n">
-        <v>115254.9110354339</v>
+        <v>115289.3589912245</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006967913114930825</v>
+        <v>-0.003987857671811959</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454314708427993</v>
+        <v>0.129745548845275</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.729572627070397</v>
+        <v>-0.6881634047849767</v>
       </c>
       <c r="H14" t="n">
-        <v>16.3032070361333</v>
+        <v>5.807982189863465</v>
       </c>
       <c r="I14" t="n">
         <v>0.2866034754586395</v>

--- a/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.13031415497148</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.1781594477044027</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2676704944632691</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03660169322884831</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.484796369257145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
+++ b/data_processed/20250804/BTCUSDQMOMENT_20250804.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.05208136015519</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.1931047144327512</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4780943459631815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4160877221743743</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.714819154945082</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
